--- a/data/pca/factorExposure/factorExposure_2009-08-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0177775713712696</v>
+        <v>0.0170131831203567</v>
       </c>
       <c r="C2">
-        <v>0.001614023326054002</v>
+        <v>0.001060692725536548</v>
       </c>
       <c r="D2">
-        <v>-0.003680050094717874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009509868977077139</v>
+      </c>
+      <c r="E2">
+        <v>0.002132252558940108</v>
+      </c>
+      <c r="F2">
+        <v>-0.01357682085696211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09444784631224268</v>
+        <v>0.09317028423594989</v>
       </c>
       <c r="C4">
-        <v>0.02068967914000186</v>
+        <v>0.0146247068391341</v>
       </c>
       <c r="D4">
-        <v>-0.06686165376720096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08357029953473895</v>
+      </c>
+      <c r="E4">
+        <v>0.02845723234059818</v>
+      </c>
+      <c r="F4">
+        <v>0.03345461788201441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1488829779170967</v>
+        <v>0.1596828188463762</v>
       </c>
       <c r="C6">
-        <v>0.02796655307406301</v>
+        <v>0.0273697652712524</v>
       </c>
       <c r="D6">
-        <v>0.02601006896158272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0253731345411138</v>
+      </c>
+      <c r="E6">
+        <v>0.009116812550303135</v>
+      </c>
+      <c r="F6">
+        <v>0.04173611307283212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06357033191761843</v>
+        <v>0.06335258833872381</v>
       </c>
       <c r="C7">
-        <v>0.00285899105302384</v>
+        <v>-0.001657388998485601</v>
       </c>
       <c r="D7">
-        <v>-0.03972440373411856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05243380639740436</v>
+      </c>
+      <c r="E7">
+        <v>0.01195221656336954</v>
+      </c>
+      <c r="F7">
+        <v>0.04683570237600557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0635459841333884</v>
+        <v>0.05780969430174376</v>
       </c>
       <c r="C8">
-        <v>-0.01070948824648801</v>
+        <v>-0.01301983413222872</v>
       </c>
       <c r="D8">
-        <v>-0.02294698701069779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03149867564372661</v>
+      </c>
+      <c r="E8">
+        <v>0.01758686370258739</v>
+      </c>
+      <c r="F8">
+        <v>-0.02583911610606708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07291117631608503</v>
+        <v>0.07105655888073345</v>
       </c>
       <c r="C9">
-        <v>0.01704411402546456</v>
+        <v>0.01029018893356004</v>
       </c>
       <c r="D9">
-        <v>-0.06957112442813176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0871385807372827</v>
+      </c>
+      <c r="E9">
+        <v>0.02419727662315407</v>
+      </c>
+      <c r="F9">
+        <v>0.04730913566350493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08312496591353467</v>
+        <v>0.08970559690876496</v>
       </c>
       <c r="C10">
-        <v>0.01302646369082018</v>
+        <v>0.02076035079821995</v>
       </c>
       <c r="D10">
-        <v>0.168108845266886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.162929685055799</v>
+      </c>
+      <c r="E10">
+        <v>-0.03203869917286854</v>
+      </c>
+      <c r="F10">
+        <v>-0.05762610148682009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09317777895013153</v>
+        <v>0.08810640197514437</v>
       </c>
       <c r="C11">
-        <v>0.0178436744312963</v>
+        <v>0.01063588381690433</v>
       </c>
       <c r="D11">
-        <v>-0.09782392547290626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169153718853553</v>
+      </c>
+      <c r="E11">
+        <v>0.0462162157090223</v>
+      </c>
+      <c r="F11">
+        <v>0.02300072689525987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09931177127158657</v>
+        <v>0.09146652327157508</v>
       </c>
       <c r="C12">
-        <v>0.01575418703815524</v>
+        <v>0.007934034621214014</v>
       </c>
       <c r="D12">
-        <v>-0.1017244966829315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317298003545824</v>
+      </c>
+      <c r="E12">
+        <v>0.04569553205299653</v>
+      </c>
+      <c r="F12">
+        <v>0.03157456049954557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04435993556676308</v>
+        <v>0.04185248523505415</v>
       </c>
       <c r="C13">
-        <v>0.005962915190205197</v>
+        <v>0.002474131573144571</v>
       </c>
       <c r="D13">
-        <v>-0.03093541706408411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05359449367498623</v>
+      </c>
+      <c r="E13">
+        <v>-0.003532022293116787</v>
+      </c>
+      <c r="F13">
+        <v>0.001163344610774519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02007137197692863</v>
+        <v>0.02381560244487079</v>
       </c>
       <c r="C14">
-        <v>0.0151779623922099</v>
+        <v>0.01377343902602685</v>
       </c>
       <c r="D14">
-        <v>-0.0251252454735908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03345552462656649</v>
+      </c>
+      <c r="E14">
+        <v>0.01896358084593565</v>
+      </c>
+      <c r="F14">
+        <v>0.01382295423672505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03456666015408132</v>
+        <v>0.03293863908104361</v>
       </c>
       <c r="C15">
-        <v>0.007698788011798395</v>
+        <v>0.004726218842634442</v>
       </c>
       <c r="D15">
-        <v>-0.03069425209460667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04490185761168668</v>
+      </c>
+      <c r="E15">
+        <v>0.005889938561228642</v>
+      </c>
+      <c r="F15">
+        <v>0.02544589583380425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07846213216721921</v>
+        <v>0.07392575186004957</v>
       </c>
       <c r="C16">
-        <v>0.008598716028563271</v>
+        <v>0.001148080193854886</v>
       </c>
       <c r="D16">
-        <v>-0.10008014482239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1274654088552852</v>
+      </c>
+      <c r="E16">
+        <v>0.06044254096707767</v>
+      </c>
+      <c r="F16">
+        <v>0.0275905193742987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0007771098223133114</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002681880462064457</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00160416964610079</v>
+      </c>
+      <c r="E17">
+        <v>0.001127542608889162</v>
+      </c>
+      <c r="F17">
+        <v>-0.002179094239156216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01737083561915424</v>
+        <v>0.03808315774718617</v>
       </c>
       <c r="C18">
-        <v>-0.003140569065558187</v>
+        <v>-0.002873507170688057</v>
       </c>
       <c r="D18">
-        <v>-0.03019663415876047</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01567770050399646</v>
+      </c>
+      <c r="E18">
+        <v>-0.008020864775563441</v>
+      </c>
+      <c r="F18">
+        <v>-0.008345014628024379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06626395608158921</v>
+        <v>0.06311717017197715</v>
       </c>
       <c r="C20">
-        <v>0.006625235325017449</v>
+        <v>0.0004476735258358825</v>
       </c>
       <c r="D20">
-        <v>-0.05262529674350989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07696325826357839</v>
+      </c>
+      <c r="E20">
+        <v>0.05581319020727196</v>
+      </c>
+      <c r="F20">
+        <v>0.03014312303634924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04030463783557282</v>
+        <v>0.04091757282375144</v>
       </c>
       <c r="C21">
-        <v>0.009811953455389238</v>
+        <v>0.006330581994196195</v>
       </c>
       <c r="D21">
-        <v>-0.03094509991530365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03858550475145975</v>
+      </c>
+      <c r="E21">
+        <v>-0.0005235864393619331</v>
+      </c>
+      <c r="F21">
+        <v>-0.02380659391744171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04056873188190358</v>
+        <v>0.04228550329080573</v>
       </c>
       <c r="C22">
-        <v>0.0009518754981828096</v>
+        <v>0.0009722261192188595</v>
       </c>
       <c r="D22">
-        <v>0.01160465993685154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00382734173288626</v>
+      </c>
+      <c r="E22">
+        <v>0.03533158709390086</v>
+      </c>
+      <c r="F22">
+        <v>-0.04011341503846771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04053195038454404</v>
+        <v>0.0422613061526335</v>
       </c>
       <c r="C23">
-        <v>0.0009418807707749701</v>
+        <v>0.0009636389900103758</v>
       </c>
       <c r="D23">
-        <v>0.01158354075322644</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003842892034811238</v>
+      </c>
+      <c r="E23">
+        <v>0.0355143439064703</v>
+      </c>
+      <c r="F23">
+        <v>-0.04007416389955835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08463225303357415</v>
+        <v>0.07988945703540351</v>
       </c>
       <c r="C24">
-        <v>0.008832577906037229</v>
+        <v>0.001847402725922809</v>
       </c>
       <c r="D24">
-        <v>-0.1049310962253127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.119810744131942</v>
+      </c>
+      <c r="E24">
+        <v>0.04844230234191528</v>
+      </c>
+      <c r="F24">
+        <v>0.03000293386005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08964968088499212</v>
+        <v>0.08472692195783636</v>
       </c>
       <c r="C25">
-        <v>0.01135110158617662</v>
+        <v>0.004415842235511422</v>
       </c>
       <c r="D25">
-        <v>-0.0913914039701879</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1093200261407279</v>
+      </c>
+      <c r="E25">
+        <v>0.03207954150885794</v>
+      </c>
+      <c r="F25">
+        <v>0.02676545055022077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05930554119168781</v>
+        <v>0.05915581237976717</v>
       </c>
       <c r="C26">
-        <v>0.01794603202462323</v>
+        <v>0.01456039268138322</v>
       </c>
       <c r="D26">
-        <v>-0.01871340111827942</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0422195028420158</v>
+      </c>
+      <c r="E26">
+        <v>0.02971898002650755</v>
+      </c>
+      <c r="F26">
+        <v>-0.005084771747395237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1301243577801807</v>
+        <v>0.1413701666608266</v>
       </c>
       <c r="C28">
-        <v>0.01181163613028259</v>
+        <v>0.02226807991370306</v>
       </c>
       <c r="D28">
-        <v>0.2720812089429744</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2614292740376473</v>
+      </c>
+      <c r="E28">
+        <v>-0.0674231452563801</v>
+      </c>
+      <c r="F28">
+        <v>0.004040410139769949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02638352277872803</v>
+        <v>0.02863700157191732</v>
       </c>
       <c r="C29">
-        <v>0.009774264790444513</v>
+        <v>0.008811707184379496</v>
       </c>
       <c r="D29">
-        <v>-0.02252941025881363</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03116839414741061</v>
+      </c>
+      <c r="E29">
+        <v>0.01387810788866834</v>
+      </c>
+      <c r="F29">
+        <v>-0.01263980602332064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06601282815680809</v>
+        <v>0.05913080941125715</v>
       </c>
       <c r="C30">
-        <v>0.01021202385028219</v>
+        <v>0.002741287226147644</v>
       </c>
       <c r="D30">
-        <v>-0.06128177106778755</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08796958168576598</v>
+      </c>
+      <c r="E30">
+        <v>0.01385162888689281</v>
+      </c>
+      <c r="F30">
+        <v>0.08001699934393833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05129103756792731</v>
+        <v>0.0513158386504858</v>
       </c>
       <c r="C31">
-        <v>0.01711285145605299</v>
+        <v>0.01585483993047995</v>
       </c>
       <c r="D31">
-        <v>-0.02023665710671263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02440036920947231</v>
+      </c>
+      <c r="E31">
+        <v>0.0287012709651388</v>
+      </c>
+      <c r="F31">
+        <v>-0.001300262325015553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04784032339868767</v>
+        <v>0.05138337920993633</v>
       </c>
       <c r="C32">
-        <v>0.002300392364038989</v>
+        <v>-0.001626036899732291</v>
       </c>
       <c r="D32">
-        <v>-0.01999338809762711</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03574147579409348</v>
+      </c>
+      <c r="E32">
+        <v>0.03428075425611347</v>
+      </c>
+      <c r="F32">
+        <v>0.003595449526304978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0933594196624347</v>
+        <v>0.08900405185111783</v>
       </c>
       <c r="C33">
-        <v>0.0140753505563902</v>
+        <v>0.006455621346265388</v>
       </c>
       <c r="D33">
-        <v>-0.07826666234132258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1024277357395117</v>
+      </c>
+      <c r="E33">
+        <v>0.04533024394524796</v>
+      </c>
+      <c r="F33">
+        <v>0.03939593389984299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0715069156189817</v>
+        <v>0.0679205318277759</v>
       </c>
       <c r="C34">
-        <v>0.01613041010006735</v>
+        <v>0.01011090461500904</v>
       </c>
       <c r="D34">
-        <v>-0.08564805261485411</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1098951827197108</v>
+      </c>
+      <c r="E34">
+        <v>0.03518721954811131</v>
+      </c>
+      <c r="F34">
+        <v>0.03329497110308023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02407547175143169</v>
+        <v>0.02601943043455232</v>
       </c>
       <c r="C35">
-        <v>0.002946043450547291</v>
+        <v>0.002741263439328942</v>
       </c>
       <c r="D35">
-        <v>-0.006684720511933445</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01204806928163695</v>
+      </c>
+      <c r="E35">
+        <v>0.0128024794215287</v>
+      </c>
+      <c r="F35">
+        <v>0.001281436666621128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02662313881267742</v>
+        <v>0.02733012184812877</v>
       </c>
       <c r="C36">
-        <v>0.00789421448743757</v>
+        <v>0.006801335860001712</v>
       </c>
       <c r="D36">
-        <v>-0.03887709267722711</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03968663716372751</v>
+      </c>
+      <c r="E36">
+        <v>0.01661144524437119</v>
+      </c>
+      <c r="F36">
+        <v>0.01516574523010883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-7.408584453567782e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005387177516062467</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.00237106141041071</v>
+      </c>
+      <c r="E37">
+        <v>-0.0005127720139135789</v>
+      </c>
+      <c r="F37">
+        <v>-0.001616472559098454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1173037481181863</v>
+        <v>0.1038847817712528</v>
       </c>
       <c r="C39">
-        <v>0.02476010364896529</v>
+        <v>0.01588428955083781</v>
       </c>
       <c r="D39">
-        <v>-0.1403982610169233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1537932914657492</v>
+      </c>
+      <c r="E39">
+        <v>0.05917846629501215</v>
+      </c>
+      <c r="F39">
+        <v>0.03107149920322344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03994317849884191</v>
+        <v>0.04357156917146212</v>
       </c>
       <c r="C40">
-        <v>0.009522149926696434</v>
+        <v>0.007438395524878826</v>
       </c>
       <c r="D40">
-        <v>-0.01024835349984181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03047536270024433</v>
+      </c>
+      <c r="E40">
+        <v>0.001722452358471537</v>
+      </c>
+      <c r="F40">
+        <v>-0.01885064393719978</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02541550328855536</v>
+        <v>0.02757482633946509</v>
       </c>
       <c r="C41">
-        <v>0.007165178159587545</v>
+        <v>0.006896247702984356</v>
       </c>
       <c r="D41">
-        <v>-0.009361587085136142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01079703355811192</v>
+      </c>
+      <c r="E41">
+        <v>0.01197987545062951</v>
+      </c>
+      <c r="F41">
+        <v>-0.005729146280602453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04224758933626092</v>
+        <v>0.04089513522225223</v>
       </c>
       <c r="C43">
-        <v>0.008183791984068616</v>
+        <v>0.007277446716985221</v>
       </c>
       <c r="D43">
-        <v>-0.0140113123684684</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01886050931460089</v>
+      </c>
+      <c r="E43">
+        <v>0.02532632238816668</v>
+      </c>
+      <c r="F43">
+        <v>-0.01298356102930348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07448938599831038</v>
+        <v>0.07928766802836507</v>
       </c>
       <c r="C44">
-        <v>0.02642353217582813</v>
+        <v>0.01906294949704356</v>
       </c>
       <c r="D44">
-        <v>-0.07977635705712183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09688909303491805</v>
+      </c>
+      <c r="E44">
+        <v>0.06127185517514085</v>
+      </c>
+      <c r="F44">
+        <v>0.1592454835579206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02120033983500824</v>
+        <v>0.02336101132897948</v>
       </c>
       <c r="C46">
-        <v>0.003810780796466407</v>
+        <v>0.00337388723047488</v>
       </c>
       <c r="D46">
-        <v>-0.006547858378448695</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01276994783681434</v>
+      </c>
+      <c r="E46">
+        <v>0.02603784670510702</v>
+      </c>
+      <c r="F46">
+        <v>-0.0071299091595167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05326817884203101</v>
+        <v>0.05241864127228969</v>
       </c>
       <c r="C47">
-        <v>0.00465360361683592</v>
+        <v>0.003934455548190766</v>
       </c>
       <c r="D47">
-        <v>-0.006685576181438582</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01142000164448096</v>
+      </c>
+      <c r="E47">
+        <v>0.023237322784605</v>
+      </c>
+      <c r="F47">
+        <v>-0.03246361270364945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04971895103830803</v>
+        <v>0.05019563295917355</v>
       </c>
       <c r="C48">
-        <v>0.005130037362074175</v>
+        <v>0.002193487908400535</v>
       </c>
       <c r="D48">
-        <v>-0.04112439905343626</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05059269649470018</v>
+      </c>
+      <c r="E48">
+        <v>-0.004737467692247982</v>
+      </c>
+      <c r="F48">
+        <v>0.009695080038842854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.20214875593357</v>
+        <v>0.2003465061701796</v>
       </c>
       <c r="C49">
-        <v>0.02181866508576159</v>
+        <v>0.01923663712830827</v>
       </c>
       <c r="D49">
-        <v>0.0176307085351098</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007573835925172009</v>
+      </c>
+      <c r="E49">
+        <v>0.03091922329448334</v>
+      </c>
+      <c r="F49">
+        <v>0.04108329654514739</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05053356438338251</v>
+        <v>0.0518342436853425</v>
       </c>
       <c r="C50">
-        <v>0.01313015323219188</v>
+        <v>0.01156240208708354</v>
       </c>
       <c r="D50">
-        <v>-0.01972610991285111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02354355994020961</v>
+      </c>
+      <c r="E50">
+        <v>0.0299088215387422</v>
+      </c>
+      <c r="F50">
+        <v>0.009779811233683853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1564322729118789</v>
+        <v>0.1502211643950928</v>
       </c>
       <c r="C52">
-        <v>0.02019481313527632</v>
+        <v>0.01832124483725035</v>
       </c>
       <c r="D52">
-        <v>-0.048334841123903</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04076170446982313</v>
+      </c>
+      <c r="E52">
+        <v>0.0208882257976277</v>
+      </c>
+      <c r="F52">
+        <v>0.04325162264786177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1730692244344847</v>
+        <v>0.1710889340045296</v>
       </c>
       <c r="C53">
-        <v>0.01999403252290594</v>
+        <v>0.02047260295894677</v>
       </c>
       <c r="D53">
-        <v>-0.01210506700888467</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003392363714825274</v>
+      </c>
+      <c r="E53">
+        <v>0.02805562946316269</v>
+      </c>
+      <c r="F53">
+        <v>0.07303084396306643</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01797442996942581</v>
+        <v>0.02080311709335526</v>
       </c>
       <c r="C54">
-        <v>0.01268033886475713</v>
+        <v>0.01113295041837006</v>
       </c>
       <c r="D54">
-        <v>-0.02774872554073356</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03481429658876364</v>
+      </c>
+      <c r="E54">
+        <v>0.02230419621219838</v>
+      </c>
+      <c r="F54">
+        <v>-0.001744615118824097</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.115684320005129</v>
+        <v>0.1153628548222786</v>
       </c>
       <c r="C55">
-        <v>0.01782423338874558</v>
+        <v>0.0180220132984636</v>
       </c>
       <c r="D55">
-        <v>-0.01063124202580804</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006533630145698833</v>
+      </c>
+      <c r="E55">
+        <v>0.0233521339332012</v>
+      </c>
+      <c r="F55">
+        <v>0.04664826926095005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1791569967713117</v>
+        <v>0.1771342109310224</v>
       </c>
       <c r="C56">
-        <v>0.01758214760632638</v>
+        <v>0.01847527214763777</v>
       </c>
       <c r="D56">
-        <v>-0.009092607363463939</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004125563873253405</v>
+      </c>
+      <c r="E56">
+        <v>0.0316385107720126</v>
+      </c>
+      <c r="F56">
+        <v>0.05286815316059592</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04934717063200448</v>
+        <v>0.04543907569312887</v>
       </c>
       <c r="C58">
-        <v>0.005852977826404146</v>
+        <v>-0.0002355392931347256</v>
       </c>
       <c r="D58">
-        <v>-0.05580673427911656</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07187268929791342</v>
+      </c>
+      <c r="E58">
+        <v>0.03325647140958558</v>
+      </c>
+      <c r="F58">
+        <v>-0.0365816570518015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1603150904375245</v>
+        <v>0.166618520322946</v>
       </c>
       <c r="C59">
-        <v>0.01354065035075998</v>
+        <v>0.02275621127531507</v>
       </c>
       <c r="D59">
-        <v>0.2240438636566246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2177791823800594</v>
+      </c>
+      <c r="E59">
+        <v>-0.04698952720007615</v>
+      </c>
+      <c r="F59">
+        <v>-0.035055231844787</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2378290493716635</v>
+        <v>0.2321974823277226</v>
       </c>
       <c r="C60">
-        <v>0.001782845634264303</v>
+        <v>-0.001433436605717287</v>
       </c>
       <c r="D60">
-        <v>-0.04506827477882198</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03872573183497246</v>
+      </c>
+      <c r="E60">
+        <v>0.006842453442214345</v>
+      </c>
+      <c r="F60">
+        <v>0.0001345658104194808</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08828559143847306</v>
+        <v>0.07988744980954465</v>
       </c>
       <c r="C61">
-        <v>0.01828978256945611</v>
+        <v>0.01136683068306911</v>
       </c>
       <c r="D61">
-        <v>-0.09951972669688712</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1177268432273143</v>
+      </c>
+      <c r="E61">
+        <v>0.03917117137084939</v>
+      </c>
+      <c r="F61">
+        <v>0.01380507208296437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1701789816762382</v>
+        <v>0.1686163154500327</v>
       </c>
       <c r="C62">
-        <v>0.02145530709569664</v>
+        <v>0.02105319880276497</v>
       </c>
       <c r="D62">
-        <v>-0.006290637023884006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004476087931770148</v>
+      </c>
+      <c r="E62">
+        <v>0.03214938419820514</v>
+      </c>
+      <c r="F62">
+        <v>0.0368683834359269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04394040326546213</v>
+        <v>0.04601128921921745</v>
       </c>
       <c r="C63">
-        <v>0.005989055382007998</v>
+        <v>0.001789695582973958</v>
       </c>
       <c r="D63">
-        <v>-0.04361630524857892</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05969849500932271</v>
+      </c>
+      <c r="E63">
+        <v>0.02409158185407586</v>
+      </c>
+      <c r="F63">
+        <v>0.003746715561721045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1127549303114229</v>
+        <v>0.1106596522616215</v>
       </c>
       <c r="C64">
-        <v>0.01514233316669943</v>
+        <v>0.01171999868748577</v>
       </c>
       <c r="D64">
-        <v>-0.03151128380102586</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04347587395922332</v>
+      </c>
+      <c r="E64">
+        <v>0.02258742050589899</v>
+      </c>
+      <c r="F64">
+        <v>0.02594123703162921</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1392514359520035</v>
+        <v>0.1510581913247731</v>
       </c>
       <c r="C65">
-        <v>0.03368625623458698</v>
+        <v>0.03448394835766662</v>
       </c>
       <c r="D65">
-        <v>0.05013218030038132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04568474554368706</v>
+      </c>
+      <c r="E65">
+        <v>0.00469843283562584</v>
+      </c>
+      <c r="F65">
+        <v>0.03651132787638109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1400117306735572</v>
+        <v>0.1236563481189149</v>
       </c>
       <c r="C66">
-        <v>0.02289768118905762</v>
+        <v>0.01395673095685831</v>
       </c>
       <c r="D66">
-        <v>-0.1186515475323184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1410944377779092</v>
+      </c>
+      <c r="E66">
+        <v>0.06399310305250011</v>
+      </c>
+      <c r="F66">
+        <v>0.03441651516781538</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06313828055834625</v>
+        <v>0.05647096972550376</v>
       </c>
       <c r="C67">
-        <v>0.005369728949405283</v>
+        <v>0.002793839457261992</v>
       </c>
       <c r="D67">
-        <v>-0.05276774166952641</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05566769778078864</v>
+      </c>
+      <c r="E67">
+        <v>0.01616053201338818</v>
+      </c>
+      <c r="F67">
+        <v>-0.02961703720701858</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1039747182858206</v>
+        <v>0.1162723546118993</v>
       </c>
       <c r="C68">
-        <v>0.02184013941199504</v>
+        <v>0.03305239160151379</v>
       </c>
       <c r="D68">
-        <v>0.2714198477383654</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2617993876802301</v>
+      </c>
+      <c r="E68">
+        <v>-0.08745219636262933</v>
+      </c>
+      <c r="F68">
+        <v>-0.002002365067993922</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03980230754290401</v>
+        <v>0.038640966965996</v>
       </c>
       <c r="C69">
-        <v>0.001860391766224138</v>
+        <v>0.001259967030647362</v>
       </c>
       <c r="D69">
-        <v>-0.006922477218076717</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007671107106647336</v>
+      </c>
+      <c r="E69">
+        <v>0.02310085530618857</v>
+      </c>
+      <c r="F69">
+        <v>0.0009257032631804714</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06634525081653425</v>
+        <v>0.06609364788286394</v>
       </c>
       <c r="C70">
-        <v>-0.02453658847697346</v>
+        <v>-0.02746169247607714</v>
       </c>
       <c r="D70">
-        <v>0.009965916666071977</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02470406817151495</v>
+      </c>
+      <c r="E70">
+        <v>-0.03157031809796941</v>
+      </c>
+      <c r="F70">
+        <v>-0.1760886840531512</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.122104286089385</v>
+        <v>0.1356656194456376</v>
       </c>
       <c r="C71">
-        <v>0.0254954158176167</v>
+        <v>0.03747348887017057</v>
       </c>
       <c r="D71">
-        <v>0.2863364088388345</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723535562667053</v>
+      </c>
+      <c r="E71">
+        <v>-0.09761487619399037</v>
+      </c>
+      <c r="F71">
+        <v>0.004459879353365647</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1385718087270775</v>
+        <v>0.1435848080352158</v>
       </c>
       <c r="C72">
-        <v>0.02750058181374498</v>
+        <v>0.02753706286160821</v>
       </c>
       <c r="D72">
-        <v>-0.001854581043287547</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004661957326138294</v>
+      </c>
+      <c r="E72">
+        <v>0.0365045057986597</v>
+      </c>
+      <c r="F72">
+        <v>0.03060454074022487</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.206504163910755</v>
+        <v>0.2042480680948799</v>
       </c>
       <c r="C73">
-        <v>0.01726069231174647</v>
+        <v>0.01345147880171968</v>
       </c>
       <c r="D73">
-        <v>-0.01358882289757412</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01666458305271215</v>
+      </c>
+      <c r="E73">
+        <v>0.063559318277574</v>
+      </c>
+      <c r="F73">
+        <v>0.03933571163544802</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09341943139705633</v>
+        <v>0.09543812546575091</v>
       </c>
       <c r="C74">
-        <v>0.01394866552553749</v>
+        <v>0.01388318389178004</v>
       </c>
       <c r="D74">
-        <v>-0.02008201332953729</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0154076114794436</v>
+      </c>
+      <c r="E74">
+        <v>0.04331016889407482</v>
+      </c>
+      <c r="F74">
+        <v>0.05590742573056187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1338396531621865</v>
+        <v>0.1271180745247875</v>
       </c>
       <c r="C75">
-        <v>0.03025919003728617</v>
+        <v>0.02875553827017165</v>
       </c>
       <c r="D75">
-        <v>-0.02870683491847772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02825769058188461</v>
+      </c>
+      <c r="E75">
+        <v>0.05600461224876645</v>
+      </c>
+      <c r="F75">
+        <v>0.02224271306374336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08438565743679662</v>
+        <v>0.08967102245105739</v>
       </c>
       <c r="C77">
-        <v>0.01547859773777336</v>
+        <v>0.008202663585066371</v>
       </c>
       <c r="D77">
-        <v>-0.09424675028693182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1137540186162061</v>
+      </c>
+      <c r="E77">
+        <v>0.04352135253326782</v>
+      </c>
+      <c r="F77">
+        <v>0.03442714001491478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1038689328464701</v>
+        <v>0.1012023730718752</v>
       </c>
       <c r="C78">
-        <v>0.04593036203160979</v>
+        <v>0.03929828236184871</v>
       </c>
       <c r="D78">
-        <v>-0.104269483245624</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1151285463619903</v>
+      </c>
+      <c r="E78">
+        <v>0.0767797061506194</v>
+      </c>
+      <c r="F78">
+        <v>0.050914580972234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1639694058644664</v>
+        <v>0.1635101924014913</v>
       </c>
       <c r="C79">
-        <v>0.02460333940166583</v>
+        <v>0.02354603817247203</v>
       </c>
       <c r="D79">
-        <v>-0.01304811553727667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01164419464170266</v>
+      </c>
+      <c r="E79">
+        <v>0.04400405702672095</v>
+      </c>
+      <c r="F79">
+        <v>0.01154431600362946</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08711059684109373</v>
+        <v>0.08312765125581799</v>
       </c>
       <c r="C80">
-        <v>0.002337978265588128</v>
+        <v>-0.0002978599245547887</v>
       </c>
       <c r="D80">
-        <v>-0.04268578415624787</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05539777414185254</v>
+      </c>
+      <c r="E80">
+        <v>0.03587563142492312</v>
+      </c>
+      <c r="F80">
+        <v>-0.01920181293134255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1200737186472833</v>
+        <v>0.117869197389942</v>
       </c>
       <c r="C81">
-        <v>0.03233377721518731</v>
+        <v>0.03235213400846516</v>
       </c>
       <c r="D81">
-        <v>-0.02400185989999904</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01338123248551961</v>
+      </c>
+      <c r="E81">
+        <v>0.05456116600548139</v>
+      </c>
+      <c r="F81">
+        <v>0.01934982528737187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1660654389108195</v>
+        <v>0.166054354276203</v>
       </c>
       <c r="C82">
-        <v>0.02530065513148089</v>
+        <v>0.02585975616073405</v>
       </c>
       <c r="D82">
-        <v>-0.01194853570867746</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.0009265669116628886</v>
+      </c>
+      <c r="E82">
+        <v>0.0243171739965647</v>
+      </c>
+      <c r="F82">
+        <v>0.08030816768404064</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06628744613449476</v>
+        <v>0.05820295910254202</v>
       </c>
       <c r="C83">
-        <v>0.00622876652548634</v>
+        <v>0.002988806442790222</v>
       </c>
       <c r="D83">
-        <v>-0.03352423405995728</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04928639609584939</v>
+      </c>
+      <c r="E83">
+        <v>0.002443183196458293</v>
+      </c>
+      <c r="F83">
+        <v>-0.02901800506980036</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06441100996797511</v>
+        <v>0.05846694861347005</v>
       </c>
       <c r="C84">
-        <v>0.01475997784021207</v>
+        <v>0.01096503492292229</v>
       </c>
       <c r="D84">
-        <v>-0.06523058996944694</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0724154677301353</v>
+      </c>
+      <c r="E84">
+        <v>0.01462713547874101</v>
+      </c>
+      <c r="F84">
+        <v>0.0139186233244801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1372101516422457</v>
+        <v>0.1350771783481172</v>
       </c>
       <c r="C85">
-        <v>0.02882224115143683</v>
+        <v>0.02872622942688649</v>
       </c>
       <c r="D85">
-        <v>-0.01663800834943149</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007736387702800075</v>
+      </c>
+      <c r="E85">
+        <v>0.03494359923616809</v>
+      </c>
+      <c r="F85">
+        <v>0.04669808260487422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1017508687936968</v>
+        <v>0.09288644690642013</v>
       </c>
       <c r="C86">
-        <v>-0.003128828736607306</v>
+        <v>-0.006264795344994021</v>
       </c>
       <c r="D86">
-        <v>0.001377301653523303</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0506069487561849</v>
+      </c>
+      <c r="E86">
+        <v>0.2417987575162759</v>
+      </c>
+      <c r="F86">
+        <v>-0.9033028481989086</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09993062428139997</v>
+        <v>0.09370264750392372</v>
       </c>
       <c r="C87">
-        <v>0.02851197715653398</v>
+        <v>0.01929491036831181</v>
       </c>
       <c r="D87">
-        <v>-0.06751538598280996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09446347657804063</v>
+      </c>
+      <c r="E87">
+        <v>-0.05275933551463189</v>
+      </c>
+      <c r="F87">
+        <v>0.04768012574741635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06060391721041989</v>
+        <v>0.06011796574464889</v>
       </c>
       <c r="C88">
-        <v>0.005196418135645055</v>
+        <v>0.002319929817227071</v>
       </c>
       <c r="D88">
-        <v>-0.0539015041550004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04967271506430798</v>
+      </c>
+      <c r="E88">
+        <v>0.02392634304231488</v>
+      </c>
+      <c r="F88">
+        <v>0.0152256196884729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1158003435351972</v>
+        <v>0.1261405241506707</v>
       </c>
       <c r="C89">
-        <v>0.002694566088281083</v>
+        <v>0.01273550033920324</v>
       </c>
       <c r="D89">
-        <v>0.2625101269907454</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2438310917310118</v>
+      </c>
+      <c r="E89">
+        <v>-0.08973470022340746</v>
+      </c>
+      <c r="F89">
+        <v>-0.01222648176137347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1331240287922996</v>
+        <v>0.1504245706400708</v>
       </c>
       <c r="C90">
-        <v>0.02220755077813128</v>
+        <v>0.03417747731124716</v>
       </c>
       <c r="D90">
-        <v>0.27399637380465</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2702300002011052</v>
+      </c>
+      <c r="E90">
+        <v>-0.1133890505121739</v>
+      </c>
+      <c r="F90">
+        <v>-0.01233902761232772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1202234511178944</v>
+        <v>0.1213959129082983</v>
       </c>
       <c r="C91">
-        <v>0.0195589971598422</v>
+        <v>0.02040573562488953</v>
       </c>
       <c r="D91">
-        <v>0.009022038981900626</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01717270272968761</v>
+      </c>
+      <c r="E91">
+        <v>0.05429776584722682</v>
+      </c>
+      <c r="F91">
+        <v>-0.000995712547586034</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.135647591082963</v>
+        <v>0.1454657378582404</v>
       </c>
       <c r="C92">
-        <v>0.01216851436992034</v>
+        <v>0.02455584563664892</v>
       </c>
       <c r="D92">
-        <v>0.3098444153595976</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2900302227271932</v>
+      </c>
+      <c r="E92">
+        <v>-0.1022677915172126</v>
+      </c>
+      <c r="F92">
+        <v>-0.02124978519265983</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.136577606208909</v>
+        <v>0.1507502656758265</v>
       </c>
       <c r="C93">
-        <v>0.01784290327134521</v>
+        <v>0.02900448471952059</v>
       </c>
       <c r="D93">
-        <v>0.2701022656681599</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2655680143863697</v>
+      </c>
+      <c r="E93">
+        <v>-0.07600040700806694</v>
+      </c>
+      <c r="F93">
+        <v>-0.001801494811329439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1344086143015519</v>
+        <v>0.1278394363172978</v>
       </c>
       <c r="C94">
-        <v>0.02723889626614794</v>
+        <v>0.02512958237915475</v>
       </c>
       <c r="D94">
-        <v>-0.04296985629687607</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0400312779843434</v>
+      </c>
+      <c r="E94">
+        <v>0.05617304917499576</v>
+      </c>
+      <c r="F94">
+        <v>0.03537951478474402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1258193774778039</v>
+        <v>0.1265027612606493</v>
       </c>
       <c r="C95">
-        <v>0.01012808218353046</v>
+        <v>0.003203286394538474</v>
       </c>
       <c r="D95">
-        <v>-0.07881026218880098</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09826861162321178</v>
+      </c>
+      <c r="E95">
+        <v>0.05335062672287577</v>
+      </c>
+      <c r="F95">
+        <v>-0.004864815497031747</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1197822274208356</v>
+        <v>0.1117828240452346</v>
       </c>
       <c r="C96">
-        <v>-0.9870413547432948</v>
+        <v>-0.9868750254393657</v>
       </c>
       <c r="D96">
-        <v>0.01141188455954072</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05096275274341394</v>
+      </c>
+      <c r="E96">
+        <v>0.05204122389666536</v>
+      </c>
+      <c r="F96">
+        <v>0.04279383614909948</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.192820076468026</v>
+        <v>0.1939290893725909</v>
       </c>
       <c r="C97">
-        <v>-0.005580312687780977</v>
+        <v>-0.005833760680454825</v>
       </c>
       <c r="D97">
-        <v>0.0131896594711553</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02029700878276225</v>
+      </c>
+      <c r="E97">
+        <v>0.02179539734336185</v>
+      </c>
+      <c r="F97">
+        <v>-0.09299633618121901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1987467332690848</v>
+        <v>0.2065212256871552</v>
       </c>
       <c r="C98">
-        <v>0.01164564889774741</v>
+        <v>0.007380798279623955</v>
       </c>
       <c r="D98">
-        <v>-0.009755744275748135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01327682162426717</v>
+      </c>
+      <c r="E98">
+        <v>-0.07486049774729051</v>
+      </c>
+      <c r="F98">
+        <v>-0.09177535256443714</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05637085421438788</v>
+        <v>0.05489032896758567</v>
       </c>
       <c r="C99">
-        <v>-0.002026148608759378</v>
+        <v>-0.004333806344532845</v>
       </c>
       <c r="D99">
-        <v>-0.02277744919933981</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03822357091474879</v>
+      </c>
+      <c r="E99">
+        <v>0.02126756475009474</v>
+      </c>
+      <c r="F99">
+        <v>0.003274879557629522</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1431071586417548</v>
+        <v>0.1289721873703372</v>
       </c>
       <c r="C100">
-        <v>-0.03751121451013965</v>
+        <v>-0.05226781881442927</v>
       </c>
       <c r="D100">
-        <v>-0.4161515143999759</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3499939149785723</v>
+      </c>
+      <c r="E100">
+        <v>-0.8831169765154701</v>
+      </c>
+      <c r="F100">
+        <v>-0.1679799430077004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02622906251576423</v>
+        <v>0.02857965796634442</v>
       </c>
       <c r="C101">
-        <v>0.00967648684482901</v>
+        <v>0.008825743437958819</v>
       </c>
       <c r="D101">
-        <v>-0.02219818002901022</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03083661062049807</v>
+      </c>
+      <c r="E101">
+        <v>0.0132940912641361</v>
+      </c>
+      <c r="F101">
+        <v>-0.01380722632171937</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
